--- a/biology/Botanique/Ramón_de_la_Sagra/Ramón_de_la_Sagra.xlsx
+++ b/biology/Botanique/Ramón_de_la_Sagra/Ramón_de_la_Sagra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_de_la_Sagra</t>
+          <t>Ramón_de_la_Sagra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ramón Dionisio José de la Sagra y Peris, né le 8 avril 1798 à La Corogne (Espagne) et mort le 25 mai 1871 à Cortaillod (Suisse)[1], est un botaniste, agronome, économiste et introducteur des idées libertaires en Espagne.
-Lecteur de Pierre-Joseph Proudhon[2], fondateur en 1845 du premier journal anarchiste El Porvenir (« L'Avenir » en français), publié en Espagne à La Corogne[3],[4], il est présent en France lors de la Révolution de 1848.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramón Dionisio José de la Sagra y Peris, né le 8 avril 1798 à La Corogne (Espagne) et mort le 25 mai 1871 à Cortaillod (Suisse), est un botaniste, agronome, économiste et introducteur des idées libertaires en Espagne.
+Lecteur de Pierre-Joseph Proudhon, fondateur en 1845 du premier journal anarchiste El Porvenir (« L'Avenir » en français), publié en Espagne à La Corogne il est présent en France lors de la Révolution de 1848.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_de_la_Sagra</t>
+          <t>Ramón_de_la_Sagra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_de_la_Sagra</t>
+          <t>Ramón_de_la_Sagra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Banque du peuple : théorie et pratique de cette institution fondée sur la doctrine rationnelle, Paris, Bureaux de la Banque du peuple, 1849, (OCLC 611543895).</t>
         </is>
